--- a/DeepLearningStudy_4기_채점표.xlsx
+++ b/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yerim0605\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/논회스터디/wecandoit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8058CF-A323-4C6F-8DBA-F2F27A595799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB8058CF-A323-4C6F-8DBA-F2F27A595799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AFE910A-31DD-4B5B-A5E1-B866D2B3BCC4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -209,6 +209,12 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -907,13 +913,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F777BB-0227-422A-A965-4E2DA720532F}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -941,7 +947,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -967,7 +973,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -993,7 +999,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1027,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1099,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1161,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1192,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1223,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1254,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1285,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1358,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1389,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1445,7 +1451,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1513,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1538,7 +1544,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1575,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1606,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1631,38 +1637,80 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="W22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1693,7 +1741,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1724,7 +1772,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -1755,7 +1803,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -1786,13 +1834,13 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
@@ -1804,15 +1852,15 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
@@ -1820,19 +1868,19 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
@@ -1840,7 +1888,7 @@
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
@@ -1848,15 +1896,15 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
@@ -1868,7 +1916,7 @@
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
@@ -1876,7 +1924,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>4</v>
+        <v>7.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>24</v>

--- a/DeepLearningStudy_4기_채점표.xlsx
+++ b/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/논회스터디/wecandoit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yerim0605\Desktop\위캔두잇\wecandoit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB8058CF-A323-4C6F-8DBA-F2F27A595799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AFE910A-31DD-4B5B-A5E1-B866D2B3BCC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75C158-91F4-4ECB-83EB-834771C491A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>깃허브</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>거지같다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -914,12 +922,12 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:V22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -947,7 +955,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -973,7 +981,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -999,7 +1007,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1035,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1107,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1117,9 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1130,7 +1140,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1150,9 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1161,7 +1173,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1204,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1235,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1266,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1285,7 +1297,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1370,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1389,7 +1401,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +1463,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1494,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1525,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1587,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1606,7 +1618,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1637,7 +1649,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1722,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1741,7 +1753,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1772,7 +1784,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -1803,7 +1815,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -1834,7 +1846,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>

--- a/DeepLearningStudy_4기_채점표.xlsx
+++ b/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yerim0605\Desktop\위캔두잇\wecandoit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jej00\OneDrive\바탕 화면\SKUNIV\wecandoit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75C158-91F4-4ECB-83EB-834771C491A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159443AD-C878-4DD0-B38F-4F56DFC7D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>거지같다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅗ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +926,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1211,7 +1215,9 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
